--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836308</v>
+        <v>111836342</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466219.5716104305</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R2" t="n">
-        <v>6820002.683507106</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,6 +769,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836026</v>
+        <v>111836390</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,28 +817,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -843,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466285.5638356369</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R3" t="n">
-        <v>6820004.905357398</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -889,6 +890,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836342</v>
+        <v>111836438</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -959,13 +965,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466192.7104208419</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R4" t="n">
-        <v>6819993.398862178</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1009,7 +1015,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>flera brända stubbar här och söderut</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836024</v>
+        <v>111836026</v>
       </c>
       <c r="B5" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,28 +1055,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1153,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836108</v>
+        <v>111836289</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1165,32 +1175,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1200,13 +1206,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466323.0380136796</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R6" t="n">
-        <v>6820024.111215253</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836123</v>
+        <v>111836308</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,32 +1291,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1320,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466332.0736853678</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R7" t="n">
-        <v>6820019.250367305</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1393,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836317</v>
+        <v>111836024</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90670</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,25 +1407,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1436,13 +1438,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466202.3635096124</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R8" t="n">
-        <v>6820002.851133012</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1509,10 +1511,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836434</v>
+        <v>111836108</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,35 +1523,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1557,13 +1558,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466330.6106608774</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R9" t="n">
-        <v>6819819.264388632</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1611,6 +1612,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1629,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836438</v>
+        <v>111836123</v>
       </c>
       <c r="B10" t="n">
-        <v>77550</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,24 +1647,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1672,13 +1678,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466330.6106608774</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R10" t="n">
-        <v>6819819.264388632</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1718,11 +1724,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1750,7 +1751,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836390</v>
+        <v>111836449</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1793,13 +1794,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466339.2502530073</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R11" t="n">
-        <v>6819921.330039779</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1871,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836289</v>
+        <v>111836268</v>
       </c>
       <c r="B12" t="n">
-        <v>77550</v>
+        <v>88489</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1887,21 +1888,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1914,10 +1915,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466266.1049816937</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R12" t="n">
-        <v>6820019.41398964</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1987,10 +1988,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836457</v>
+        <v>111836434</v>
       </c>
       <c r="B13" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2003,26 +2004,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2030,13 +2036,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466247.4288391273</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R13" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2078,18 +2084,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>flera platser</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836268</v>
+        <v>111836317</v>
       </c>
       <c r="B14" t="n">
-        <v>88489</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466280.1850594401</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R14" t="n">
-        <v>6820041.710763609</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836449</v>
+        <v>111836425</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466247.4288391273</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R15" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836425</v>
+        <v>111836457</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2361,21 +2361,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466330.6106608774</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R16" t="n">
-        <v>6819819.264388632</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2463,6 +2463,136 @@
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111843193</v>
+      </c>
+      <c r="B17" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>466335.9671686366</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6820026.372276098</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt ner mot vägen i slänt/traktorväg samt även några längre åt väster</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836342</v>
+        <v>111836123</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,24 +696,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -723,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466192.7104208419</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R2" t="n">
-        <v>6819993.398862178</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,11 +773,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836390</v>
+        <v>111836449</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -844,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466339.2502530073</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R3" t="n">
-        <v>6819921.330039779</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -922,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836438</v>
+        <v>111836024</v>
       </c>
       <c r="B4" t="n">
-        <v>77550</v>
+        <v>90670</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +933,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>185</v>
+        <v>4365</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -965,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466330.6106608774</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R4" t="n">
-        <v>6819819.264388632</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1011,11 +1010,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836026</v>
+        <v>111836425</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,28 +1053,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1090,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466285.5638356369</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R5" t="n">
-        <v>6820004.905357398</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1136,6 +1126,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836289</v>
+        <v>111836308</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,25 +1170,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1206,10 +1201,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466266.1049816937</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R6" t="n">
-        <v>6820019.41398964</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1279,10 +1274,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836308</v>
+        <v>111836026</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,28 +1286,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1322,13 +1321,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466219.5716104305</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R7" t="n">
-        <v>6820002.683507106</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1395,10 +1394,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836024</v>
+        <v>111836342</v>
       </c>
       <c r="B8" t="n">
-        <v>90670</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1407,25 +1406,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4365</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1438,13 +1437,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466285.5638356369</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R8" t="n">
-        <v>6820004.905357398</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1484,6 +1483,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1511,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836108</v>
+        <v>111836390</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,32 +1527,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466323.0380136796</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R9" t="n">
-        <v>6820024.111215253</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1604,6 +1604,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1631,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836123</v>
+        <v>111836438</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>77550</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1647,28 +1652,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>185</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1678,13 +1679,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466332.0736853678</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R10" t="n">
-        <v>6820019.250367305</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1724,6 +1725,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1757,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836449</v>
+        <v>111836317</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1769,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1794,13 +1800,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466247.4288391273</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R11" t="n">
-        <v>6819770.428899747</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1840,11 +1846,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1872,10 +1873,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836268</v>
+        <v>111836434</v>
       </c>
       <c r="B12" t="n">
-        <v>88489</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,26 +1889,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1915,13 +1921,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466280.1850594401</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R12" t="n">
-        <v>6820041.710763609</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1969,7 +1975,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1988,10 +1993,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836434</v>
+        <v>111836268</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>88489</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2004,31 +2009,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2036,13 +2036,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466330.6106608774</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R13" t="n">
-        <v>6819819.264388632</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2090,6 +2090,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2108,10 +2109,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836317</v>
+        <v>111836289</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2120,25 +2121,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2151,10 +2152,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466202.3635096124</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R14" t="n">
-        <v>6820002.851133012</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2224,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836425</v>
+        <v>111836457</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,21 +2241,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2267,13 +2268,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466330.6106608774</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R15" t="n">
-        <v>6819819.264388632</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2317,7 +2318,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2345,10 +2346,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836457</v>
+        <v>111836108</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2357,28 +2358,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2388,13 +2393,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466247.4288391273</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R16" t="n">
-        <v>6819770.428899747</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2434,11 +2439,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2594,6 +2594,1978 @@
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111873433</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>466336.6193293465</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6819896.534473499</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111872964</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>466284.1774389566</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6819714.698731111</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111873224</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>185</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>466161.2366510775</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6819854.326197337</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111873247</v>
+      </c>
+      <c r="B21" t="n">
+        <v>77268</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>466187.8628972895</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6819888.434641422</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111873017</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>185</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>466286.4421484101</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6819750.955557158</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111873406</v>
+      </c>
+      <c r="B23" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>466339.0362354739</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6819948.539654247</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111873348</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77268</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>466179.6786675383</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6819980.638297377</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111873424</v>
+      </c>
+      <c r="B25" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>466349.4459690607</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6819937.460199843</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111873134</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>466302.8618531339</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6819817.147121492</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111873156</v>
+      </c>
+      <c r="B27" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>466341.0253921551</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6819808.661799507</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111872947</v>
+      </c>
+      <c r="B28" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>185</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>466286.0339444544</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6819708.952416494</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111873138</v>
+      </c>
+      <c r="B29" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>185</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>466302.8618531339</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6819817.147121492</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111873148</v>
+      </c>
+      <c r="B30" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>466339.053065443</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6819802.475478841</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111873093</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>466290.7905546353</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6819804.853501001</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111873196</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>466337.8227661458</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6819823.490463061</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111872977</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>185</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>466277.6982784302</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6819736.719996482</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111873414</v>
+      </c>
+      <c r="B34" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>466336.0477446369</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6819936.158226282</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836123</v>
+        <v>111836308</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,32 +692,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -727,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466332.0736853678</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R2" t="n">
-        <v>6820019.250367305</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836449</v>
+        <v>111836026</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,24 +812,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466247.4288391273</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R3" t="n">
-        <v>6819770.428899747</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -889,11 +889,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836024</v>
+        <v>111836390</v>
       </c>
       <c r="B4" t="n">
-        <v>90670</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,25 +928,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4365</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466285.5638356369</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R4" t="n">
-        <v>6820004.905357398</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1010,6 +1005,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836425</v>
+        <v>111836342</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,21 +1053,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466330.6106608774</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R5" t="n">
-        <v>6819819.264388632</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836308</v>
+        <v>111836438</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,25 +1170,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466219.5716104305</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R6" t="n">
-        <v>6820002.683507106</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1247,6 +1247,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1274,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836026</v>
+        <v>111836268</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1290,28 +1295,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1321,13 +1322,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466285.5638356369</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R7" t="n">
-        <v>6820004.905357398</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1394,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836342</v>
+        <v>111836434</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,26 +1411,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1437,13 +1443,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466192.7104208419</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R8" t="n">
-        <v>6819993.398862178</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1485,18 +1491,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836390</v>
+        <v>111836457</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,21 +1531,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466339.2502530073</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R9" t="n">
-        <v>6819921.330039779</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1636,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836438</v>
+        <v>111836317</v>
       </c>
       <c r="B10" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,25 +1648,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466330.6106608774</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R10" t="n">
-        <v>6819819.264388632</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1725,11 +1725,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1757,7 +1752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836317</v>
+        <v>111836108</v>
       </c>
       <c r="B11" t="n">
         <v>90678</v>
@@ -1790,7 +1785,11 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1800,13 +1799,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466202.3635096124</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R11" t="n">
-        <v>6820002.851133012</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1873,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836434</v>
+        <v>111836024</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90670</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1885,35 +1884,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>4365</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1921,10 +1915,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466330.6106608774</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R12" t="n">
-        <v>6819819.264388632</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1975,6 +1969,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1993,10 +1988,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836268</v>
+        <v>111836425</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2009,21 +2004,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2036,13 +2031,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466280.1850594401</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R13" t="n">
-        <v>6820041.710763609</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2082,6 +2077,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2225,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836457</v>
+        <v>111836449</v>
       </c>
       <c r="B15" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,21 +2241,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>flera platser</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2346,10 +2346,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836108</v>
+        <v>111836123</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2358,30 +2358,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466323.0380136796</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R16" t="n">
-        <v>6820024.111215253</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873433</v>
+        <v>111873148</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466336.6193293465</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R18" t="n">
-        <v>6819896.534473499</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111872964</v>
+        <v>111873138</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2728,21 +2728,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466284.1774389566</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R19" t="n">
-        <v>6819714.698731111</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873224</v>
+        <v>111873406</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2844,21 +2844,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466161.2366510775</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R20" t="n">
-        <v>6819854.326197337</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873247</v>
+        <v>111872977</v>
       </c>
       <c r="B21" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466187.8628972895</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R21" t="n">
-        <v>6819888.434641422</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111873017</v>
+        <v>111872964</v>
       </c>
       <c r="B22" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,21 +3076,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466286.4421484101</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R22" t="n">
-        <v>6819750.955557158</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873406</v>
+        <v>111873224</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +3192,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466339.0362354739</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R23" t="n">
-        <v>6819948.539654247</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873348</v>
+        <v>111873093</v>
       </c>
       <c r="B24" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3308,21 +3308,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466179.6786675383</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R24" t="n">
-        <v>6819980.638297377</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873424</v>
+        <v>111873196</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466349.4459690607</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R25" t="n">
-        <v>6819937.460199843</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873134</v>
+        <v>111873247</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466302.8618531339</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R26" t="n">
-        <v>6819817.147121492</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873156</v>
+        <v>111873424</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466341.0253921551</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R27" t="n">
-        <v>6819808.661799507</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111872947</v>
+        <v>111873156</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3772,21 +3772,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3799,13 +3799,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466286.0339444544</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R28" t="n">
-        <v>6819708.952416494</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111873138</v>
+        <v>111873134</v>
       </c>
       <c r="B29" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3888,21 +3888,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873148</v>
+        <v>111872947</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4004,21 +4004,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466339.053065443</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R30" t="n">
-        <v>6819802.475478841</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111873093</v>
+        <v>111873433</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466290.7905546353</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R31" t="n">
-        <v>6819804.853501001</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873196</v>
+        <v>111873348</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466337.8227661458</v>
+        <v>466179.6786675383</v>
       </c>
       <c r="R32" t="n">
-        <v>6819823.490463061</v>
+        <v>6819980.638297377</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111872977</v>
+        <v>111873017</v>
       </c>
       <c r="B33" t="n">
         <v>77550</v>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466277.6982784302</v>
+        <v>466286.4421484101</v>
       </c>
       <c r="R33" t="n">
-        <v>6819736.719996482</v>
+        <v>6819750.955557158</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836308</v>
+        <v>111836024</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>90670</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466219.5716104305</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R2" t="n">
-        <v>6820002.683507106</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836026</v>
+        <v>111836108</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,30 +808,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466285.5638356369</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R3" t="n">
-        <v>6820004.905357398</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836390</v>
+        <v>111836317</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,25 +928,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466339.2502530073</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R4" t="n">
-        <v>6819921.330039779</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1005,11 +1005,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836342</v>
+        <v>111836308</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1080,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466192.7104208419</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R5" t="n">
-        <v>6819993.398862178</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,11 +1121,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1158,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836438</v>
+        <v>111836123</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,24 +1164,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1201,13 +1195,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466330.6106608774</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R6" t="n">
-        <v>6819819.264388632</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1247,11 +1241,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1279,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836268</v>
+        <v>111836449</v>
       </c>
       <c r="B7" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1322,13 +1311,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466280.1850594401</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R7" t="n">
-        <v>6820041.710763609</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1368,6 +1357,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1515,7 +1509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836457</v>
+        <v>111836289</v>
       </c>
       <c r="B9" t="n">
         <v>77550</v>
@@ -1558,13 +1552,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466247.4288391273</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R9" t="n">
-        <v>6819770.428899747</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1604,11 +1598,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1636,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836317</v>
+        <v>111836390</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,25 +1637,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,13 +1668,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466202.3635096124</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R10" t="n">
-        <v>6820002.851133012</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1725,6 +1714,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1752,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836108</v>
+        <v>111836026</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1764,30 +1758,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1799,13 +1793,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466323.0380136796</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R11" t="n">
-        <v>6820024.111215253</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1872,10 +1866,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836024</v>
+        <v>111836268</v>
       </c>
       <c r="B12" t="n">
-        <v>90670</v>
+        <v>88489</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,25 +1878,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4365</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1915,13 +1909,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466285.5638356369</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R12" t="n">
-        <v>6820004.905357398</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2109,7 +2103,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836289</v>
+        <v>111836438</v>
       </c>
       <c r="B14" t="n">
         <v>77550</v>
@@ -2152,13 +2146,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466266.1049816937</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R14" t="n">
-        <v>6820019.41398964</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2198,6 +2192,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2225,10 +2224,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836449</v>
+        <v>111836342</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,21 +2240,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2268,13 +2267,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466247.4288391273</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R15" t="n">
-        <v>6819770.428899747</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2318,7 +2317,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2346,10 +2345,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836123</v>
+        <v>111836457</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2362,28 +2361,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2393,13 +2388,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466332.0736853678</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R16" t="n">
-        <v>6820019.250367305</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2439,6 +2434,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873148</v>
+        <v>111873414</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466339.053065443</v>
+        <v>466336.0477446369</v>
       </c>
       <c r="R18" t="n">
-        <v>6819802.475478841</v>
+        <v>6819936.158226282</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873138</v>
+        <v>111873424</v>
       </c>
       <c r="B19" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2728,21 +2728,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466302.8618531339</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R19" t="n">
-        <v>6819817.147121492</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873406</v>
+        <v>111873433</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466339.0362354739</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R20" t="n">
-        <v>6819948.539654247</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111872977</v>
+        <v>111873156</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466277.6982784302</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R21" t="n">
-        <v>6819736.719996482</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111872964</v>
+        <v>111872977</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,21 +3076,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466284.1774389566</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R22" t="n">
-        <v>6819714.698731111</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873224</v>
+        <v>111873348</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +3192,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466161.2366510775</v>
+        <v>466179.6786675383</v>
       </c>
       <c r="R23" t="n">
-        <v>6819854.326197337</v>
+        <v>6819980.638297377</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873093</v>
+        <v>111873196</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466290.7905546353</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R24" t="n">
-        <v>6819804.853501001</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873196</v>
+        <v>111873017</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466337.8227661458</v>
+        <v>466286.4421484101</v>
       </c>
       <c r="R25" t="n">
-        <v>6819823.490463061</v>
+        <v>6819750.955557158</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873247</v>
+        <v>111873406</v>
       </c>
       <c r="B26" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466187.8628972895</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R26" t="n">
-        <v>6819888.434641422</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873424</v>
+        <v>111873224</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3656,21 +3656,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466349.4459690607</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R27" t="n">
-        <v>6819937.460199843</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873156</v>
+        <v>111873093</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466341.0253921551</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R28" t="n">
-        <v>6819808.661799507</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111872947</v>
+        <v>111873247</v>
       </c>
       <c r="B30" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4004,21 +4004,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466286.0339444544</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R30" t="n">
-        <v>6819708.952416494</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111873433</v>
+        <v>111872964</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466336.6193293465</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R31" t="n">
-        <v>6819896.534473499</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873348</v>
+        <v>111872947</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466179.6786675383</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R32" t="n">
-        <v>6819980.638297377</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873017</v>
+        <v>111873138</v>
       </c>
       <c r="B33" t="n">
         <v>77550</v>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466286.4421484101</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R33" t="n">
-        <v>6819750.955557158</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873414</v>
+        <v>111873148</v>
       </c>
       <c r="B34" t="n">
         <v>77515</v>
@@ -4495,13 +4495,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466336.0477446369</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R34" t="n">
-        <v>6819936.158226282</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836024</v>
+        <v>111836457</v>
       </c>
       <c r="B2" t="n">
-        <v>90670</v>
+        <v>77550</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4365</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466285.5638356369</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R2" t="n">
-        <v>6820004.905357398</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,6 +769,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836108</v>
+        <v>111836438</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,32 +813,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -843,13 +844,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466323.0380136796</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R3" t="n">
-        <v>6820024.111215253</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -889,6 +890,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836317</v>
+        <v>111836123</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,28 +934,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -959,10 +969,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466202.3635096124</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R4" t="n">
-        <v>6820002.851133012</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836308</v>
+        <v>111836026</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,28 +1054,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1075,13 +1089,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466219.5716104305</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R5" t="n">
-        <v>6820002.683507106</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1148,10 +1162,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836123</v>
+        <v>111836317</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,32 +1174,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1195,10 +1205,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466332.0736853678</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R6" t="n">
-        <v>6820019.250367305</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1268,10 +1278,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836449</v>
+        <v>111836342</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1284,21 +1294,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1311,13 +1321,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466247.4288391273</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R7" t="n">
-        <v>6819770.428899747</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1361,7 +1371,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1389,10 +1399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836434</v>
+        <v>111836024</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90670</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,35 +1411,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>4365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1437,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466330.6106608774</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R8" t="n">
-        <v>6819819.264388632</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1491,6 +1496,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1509,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836289</v>
+        <v>111836108</v>
       </c>
       <c r="B9" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,28 +1527,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1552,13 +1562,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466266.1049816937</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R9" t="n">
-        <v>6820019.41398964</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1625,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836390</v>
+        <v>111836434</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,26 +1651,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1668,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466339.2502530073</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R10" t="n">
-        <v>6819921.330039779</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1716,18 +1731,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1746,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836026</v>
+        <v>111836449</v>
       </c>
       <c r="B11" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,28 +1771,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1793,13 +1798,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466285.5638356369</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R11" t="n">
-        <v>6820004.905357398</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1839,6 +1844,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1866,10 +1876,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836268</v>
+        <v>111836390</v>
       </c>
       <c r="B12" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,21 +1892,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1909,13 +1919,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466280.1850594401</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R12" t="n">
-        <v>6820041.710763609</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1955,6 +1965,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1982,10 +1997,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836425</v>
+        <v>111836268</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1998,21 +2013,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2025,13 +2040,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466330.6106608774</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R13" t="n">
-        <v>6819819.264388632</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2071,11 +2086,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2103,7 +2113,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836438</v>
+        <v>111836289</v>
       </c>
       <c r="B14" t="n">
         <v>77550</v>
@@ -2146,13 +2156,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466330.6106608774</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R14" t="n">
-        <v>6819819.264388632</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2192,11 +2202,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2224,10 +2229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836342</v>
+        <v>111836425</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,21 +2245,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2267,13 +2272,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466192.7104208419</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R15" t="n">
-        <v>6819993.398862178</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2317,7 +2322,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>flera brända stubbar här och söderut</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2345,10 +2350,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836457</v>
+        <v>111836308</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2357,25 +2362,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2388,13 +2393,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466247.4288391273</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R16" t="n">
-        <v>6819770.428899747</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2434,11 +2439,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873414</v>
+        <v>111873433</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466336.0477446369</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R18" t="n">
-        <v>6819936.158226282</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873424</v>
+        <v>111873406</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466349.4459690607</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R19" t="n">
-        <v>6819937.460199843</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873433</v>
+        <v>111873196</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466336.6193293465</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R20" t="n">
-        <v>6819896.534473499</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873156</v>
+        <v>111872977</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466341.0253921551</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R21" t="n">
-        <v>6819808.661799507</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111872977</v>
+        <v>111873348</v>
       </c>
       <c r="B22" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,21 +3076,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466277.6982784302</v>
+        <v>466179.6786675383</v>
       </c>
       <c r="R22" t="n">
-        <v>6819736.719996482</v>
+        <v>6819980.638297377</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873348</v>
+        <v>111873138</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +3192,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466179.6786675383</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R23" t="n">
-        <v>6819980.638297377</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873196</v>
+        <v>111873224</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3308,21 +3308,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466337.8227661458</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R24" t="n">
-        <v>6819823.490463061</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873017</v>
+        <v>111873093</v>
       </c>
       <c r="B25" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466286.4421484101</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R25" t="n">
-        <v>6819750.955557158</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873406</v>
+        <v>111873156</v>
       </c>
       <c r="B26" t="n">
         <v>77515</v>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466339.0362354739</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R26" t="n">
-        <v>6819948.539654247</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873224</v>
+        <v>111873414</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3656,21 +3656,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466161.2366510775</v>
+        <v>466336.0477446369</v>
       </c>
       <c r="R27" t="n">
-        <v>6819854.326197337</v>
+        <v>6819936.158226282</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873093</v>
+        <v>111873424</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3799,13 +3799,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466290.7905546353</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R28" t="n">
-        <v>6819804.853501001</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111873134</v>
+        <v>111873017</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3888,21 +3888,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466302.8618531339</v>
+        <v>466286.4421484101</v>
       </c>
       <c r="R29" t="n">
-        <v>6819817.147121492</v>
+        <v>6819750.955557158</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873247</v>
+        <v>111872964</v>
       </c>
       <c r="B30" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4004,21 +4004,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466187.8628972895</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R30" t="n">
-        <v>6819888.434641422</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111872964</v>
+        <v>111872947</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4120,21 +4120,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466284.1774389566</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R31" t="n">
-        <v>6819714.698731111</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111872947</v>
+        <v>111873148</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466286.0339444544</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R32" t="n">
-        <v>6819708.952416494</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873138</v>
+        <v>111873134</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4352,21 +4352,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873148</v>
+        <v>111873247</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4468,21 +4468,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4495,13 +4495,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466339.053065443</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R34" t="n">
-        <v>6819802.475478841</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836457</v>
+        <v>111836390</v>
       </c>
       <c r="B2" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466247.4288391273</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R2" t="n">
-        <v>6819770.428899747</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>flera platser</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836438</v>
+        <v>111836317</v>
       </c>
       <c r="B3" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466330.6106608774</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R3" t="n">
-        <v>6819819.264388632</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -890,11 +890,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836123</v>
+        <v>111836308</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,32 +929,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -969,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466332.0736853678</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R4" t="n">
-        <v>6820019.250367305</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836026</v>
+        <v>111836123</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,21 +1049,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1089,13 +1080,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466285.5638356369</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R5" t="n">
-        <v>6820004.905357398</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1162,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836317</v>
+        <v>111836425</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,25 +1165,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1205,13 +1196,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466202.3635096124</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R6" t="n">
-        <v>6820002.851133012</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1251,6 +1242,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1278,10 +1274,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836342</v>
+        <v>111836026</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,24 +1290,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466192.7104208419</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R7" t="n">
-        <v>6819993.398862178</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1367,11 +1367,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1399,10 +1394,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836024</v>
+        <v>111836434</v>
       </c>
       <c r="B8" t="n">
-        <v>90670</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,30 +1406,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4365</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466285.5638356369</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R8" t="n">
-        <v>6820004.905357398</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1496,7 +1496,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1515,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836108</v>
+        <v>111836289</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1527,32 +1526,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1562,13 +1557,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466323.0380136796</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R9" t="n">
-        <v>6820024.111215253</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1635,10 +1630,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836434</v>
+        <v>111836449</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,31 +1646,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1683,13 +1673,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466330.6106608774</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R10" t="n">
-        <v>6819819.264388632</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1731,12 +1721,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1755,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836449</v>
+        <v>111836457</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1771,21 +1767,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1848,7 +1844,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1876,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836390</v>
+        <v>111836342</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1892,21 +1888,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1919,13 +1915,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466339.2502530073</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R12" t="n">
-        <v>6819921.330039779</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1969,7 +1965,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1997,10 +1993,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836268</v>
+        <v>111836438</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>77550</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2013,21 +2009,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>185</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2040,13 +2036,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466280.1850594401</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R13" t="n">
-        <v>6820041.710763609</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2086,6 +2082,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2113,10 +2114,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836289</v>
+        <v>111836268</v>
       </c>
       <c r="B14" t="n">
-        <v>77550</v>
+        <v>88489</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2129,21 +2130,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>1962</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2156,10 +2157,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466266.1049816937</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R14" t="n">
-        <v>6820019.41398964</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2229,10 +2230,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836425</v>
+        <v>111836024</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>90670</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,25 +2242,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>4365</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2272,10 +2273,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466330.6106608774</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R15" t="n">
-        <v>6819819.264388632</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2318,11 +2319,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2350,7 +2346,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836308</v>
+        <v>111836108</v>
       </c>
       <c r="B16" t="n">
         <v>90678</v>
@@ -2383,7 +2379,11 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466219.5716104305</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R16" t="n">
-        <v>6820002.683507106</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873433</v>
+        <v>111873406</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466336.6193293465</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R18" t="n">
-        <v>6819896.534473499</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873406</v>
+        <v>111873093</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466339.0362354739</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R19" t="n">
-        <v>6819948.539654247</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873196</v>
+        <v>111873156</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466337.8227661458</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R20" t="n">
-        <v>6819823.490463061</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111872977</v>
+        <v>111873414</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466277.6982784302</v>
+        <v>466336.0477446369</v>
       </c>
       <c r="R21" t="n">
-        <v>6819736.719996482</v>
+        <v>6819936.158226282</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873138</v>
+        <v>111873424</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +3192,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466302.8618531339</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R23" t="n">
-        <v>6819817.147121492</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873224</v>
+        <v>111872947</v>
       </c>
       <c r="B24" t="n">
         <v>77550</v>
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466161.2366510775</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R24" t="n">
-        <v>6819854.326197337</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873093</v>
+        <v>111873138</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466290.7905546353</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R25" t="n">
-        <v>6819804.853501001</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873156</v>
+        <v>111872977</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466341.0253921551</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R26" t="n">
-        <v>6819808.661799507</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873414</v>
+        <v>111873148</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466336.0477446369</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R27" t="n">
-        <v>6819936.158226282</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873424</v>
+        <v>111873247</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3772,21 +3772,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466349.4459690607</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R28" t="n">
-        <v>6819937.460199843</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111872964</v>
+        <v>111873196</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466284.1774389566</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R30" t="n">
-        <v>6819714.698731111</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111872947</v>
+        <v>111873134</v>
       </c>
       <c r="B31" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4120,21 +4120,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466286.0339444544</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R31" t="n">
-        <v>6819708.952416494</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873148</v>
+        <v>111872964</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466339.053065443</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R32" t="n">
-        <v>6819802.475478841</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873134</v>
+        <v>111873224</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4352,21 +4352,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466302.8618531339</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R33" t="n">
-        <v>6819817.147121492</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873247</v>
+        <v>111873433</v>
       </c>
       <c r="B34" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4468,21 +4468,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466187.8628972895</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R34" t="n">
-        <v>6819888.434641422</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836390</v>
+        <v>111836289</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466339.2502530073</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R2" t="n">
-        <v>6819921.330039779</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,11 +769,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836317</v>
+        <v>111836342</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -844,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466202.3635096124</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R3" t="n">
-        <v>6820002.851133012</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,6 +885,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836308</v>
+        <v>111836123</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,28 +929,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -960,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466219.5716104305</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R4" t="n">
-        <v>6820002.683507106</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836123</v>
+        <v>111836026</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,21 +1053,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1080,13 +1084,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466332.0736853678</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R5" t="n">
-        <v>6820019.250367305</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1153,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836425</v>
+        <v>111836434</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,26 +1173,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1244,18 +1253,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1274,10 +1277,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836026</v>
+        <v>111836108</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,30 +1289,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1321,13 +1324,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466285.5638356369</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R7" t="n">
-        <v>6820004.905357398</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1394,10 +1397,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836434</v>
+        <v>111836449</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,31 +1413,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1442,13 +1440,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466330.6106608774</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R8" t="n">
-        <v>6819819.264388632</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1490,12 +1488,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1514,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836289</v>
+        <v>111836024</v>
       </c>
       <c r="B9" t="n">
-        <v>77550</v>
+        <v>90670</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,25 +1530,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>4365</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1557,13 +1561,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466266.1049816937</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R9" t="n">
-        <v>6820019.41398964</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1630,7 +1634,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836449</v>
+        <v>111836425</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1673,13 +1677,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466247.4288391273</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R10" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1751,7 +1755,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836457</v>
+        <v>111836438</v>
       </c>
       <c r="B11" t="n">
         <v>77550</v>
@@ -1794,13 +1798,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466247.4288391273</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R11" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1872,10 +1876,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836342</v>
+        <v>111836390</v>
       </c>
       <c r="B12" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,21 +1892,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1915,13 +1919,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466192.7104208419</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R12" t="n">
-        <v>6819993.398862178</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1965,7 +1969,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>flera brända stubbar här och söderut</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1993,10 +1997,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836438</v>
+        <v>111836268</v>
       </c>
       <c r="B13" t="n">
-        <v>77550</v>
+        <v>88489</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2009,21 +2013,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2036,13 +2040,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466330.6106608774</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R13" t="n">
-        <v>6819819.264388632</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2082,11 +2086,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2114,10 +2113,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836268</v>
+        <v>111836308</v>
       </c>
       <c r="B14" t="n">
-        <v>88489</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2126,25 +2125,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2157,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466280.1850594401</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R14" t="n">
-        <v>6820041.710763609</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2230,10 +2229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836024</v>
+        <v>111836317</v>
       </c>
       <c r="B15" t="n">
-        <v>90670</v>
+        <v>90678</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2242,25 +2241,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2273,13 +2272,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466285.5638356369</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R15" t="n">
-        <v>6820004.905357398</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2346,10 +2345,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836108</v>
+        <v>111836457</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2358,32 +2357,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2393,13 +2388,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466323.0380136796</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R16" t="n">
-        <v>6820024.111215253</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2439,6 +2434,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873406</v>
+        <v>111873424</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466339.0362354739</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R18" t="n">
-        <v>6819948.539654247</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873093</v>
+        <v>111872964</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466290.7905546353</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R19" t="n">
-        <v>6819804.853501001</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873156</v>
+        <v>111873348</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2844,21 +2844,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466341.0253921551</v>
+        <v>466179.6786675383</v>
       </c>
       <c r="R20" t="n">
-        <v>6819808.661799507</v>
+        <v>6819980.638297377</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873414</v>
+        <v>111873138</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466336.0477446369</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R21" t="n">
-        <v>6819936.158226282</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111873348</v>
+        <v>111873247</v>
       </c>
       <c r="B22" t="n">
         <v>77268</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466179.6786675383</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R22" t="n">
-        <v>6819980.638297377</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873424</v>
+        <v>111873148</v>
       </c>
       <c r="B23" t="n">
         <v>77515</v>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466349.4459690607</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R23" t="n">
-        <v>6819937.460199843</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111872947</v>
+        <v>111873156</v>
       </c>
       <c r="B24" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3308,21 +3308,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466286.0339444544</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R24" t="n">
-        <v>6819708.952416494</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873138</v>
+        <v>111873196</v>
       </c>
       <c r="B25" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466302.8618531339</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R25" t="n">
-        <v>6819817.147121492</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111872977</v>
+        <v>111873406</v>
       </c>
       <c r="B26" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466277.6982784302</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R26" t="n">
-        <v>6819736.719996482</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873148</v>
+        <v>111873414</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466339.053065443</v>
+        <v>466336.0477446369</v>
       </c>
       <c r="R27" t="n">
-        <v>6819802.475478841</v>
+        <v>6819936.158226282</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873247</v>
+        <v>111873224</v>
       </c>
       <c r="B28" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3772,21 +3772,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3799,13 +3799,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466187.8628972895</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R28" t="n">
-        <v>6819888.434641422</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111873017</v>
+        <v>111872947</v>
       </c>
       <c r="B29" t="n">
         <v>77550</v>
@@ -3915,13 +3915,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466286.4421484101</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R29" t="n">
-        <v>6819750.955557158</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873196</v>
+        <v>111873093</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466337.8227661458</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R30" t="n">
-        <v>6819823.490463061</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111873134</v>
+        <v>111873433</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466302.8618531339</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R31" t="n">
-        <v>6819817.147121492</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111872964</v>
+        <v>111873017</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466284.1774389566</v>
+        <v>466286.4421484101</v>
       </c>
       <c r="R32" t="n">
-        <v>6819714.698731111</v>
+        <v>6819750.955557158</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873224</v>
+        <v>111872977</v>
       </c>
       <c r="B33" t="n">
         <v>77550</v>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466161.2366510775</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R33" t="n">
-        <v>6819854.326197337</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873433</v>
+        <v>111873134</v>
       </c>
       <c r="B34" t="n">
         <v>77515</v>
@@ -4495,13 +4495,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466336.6193293465</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R34" t="n">
-        <v>6819896.534473499</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836289</v>
+        <v>111836268</v>
       </c>
       <c r="B2" t="n">
-        <v>77550</v>
+        <v>88489</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466266.1049816937</v>
+        <v>466280.1850594401</v>
       </c>
       <c r="R2" t="n">
-        <v>6820019.41398964</v>
+        <v>6820041.710763609</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836342</v>
+        <v>111836123</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,24 +812,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -839,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466192.7104208419</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R3" t="n">
-        <v>6819993.398862178</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,11 +889,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836123</v>
+        <v>111836026</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,21 +932,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -964,13 +963,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466332.0736853678</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R4" t="n">
-        <v>6820019.250367305</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1037,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836026</v>
+        <v>111836317</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,32 +1048,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1084,13 +1079,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466285.5638356369</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R5" t="n">
-        <v>6820004.905357398</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1157,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836434</v>
+        <v>111836024</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>90670</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,35 +1164,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>4365</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1205,10 +1195,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466330.6106608774</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R6" t="n">
-        <v>6819819.264388632</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1259,6 +1249,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1277,7 +1268,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836108</v>
+        <v>111836308</v>
       </c>
       <c r="B7" t="n">
         <v>90678</v>
@@ -1310,11 +1301,7 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1324,13 +1311,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466323.0380136796</v>
+        <v>466219.5716104305</v>
       </c>
       <c r="R7" t="n">
-        <v>6820024.111215253</v>
+        <v>6820002.683507106</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1397,7 +1384,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836449</v>
+        <v>111836425</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1440,13 +1427,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466247.4288391273</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R8" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1518,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836024</v>
+        <v>111836289</v>
       </c>
       <c r="B9" t="n">
-        <v>90670</v>
+        <v>77550</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1530,25 +1517,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4365</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1561,13 +1548,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466285.5638356369</v>
+        <v>466266.1049816937</v>
       </c>
       <c r="R9" t="n">
-        <v>6820004.905357398</v>
+        <v>6820019.41398964</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1634,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836425</v>
+        <v>111836108</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1646,28 +1633,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1677,13 +1668,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466330.6106608774</v>
+        <v>466323.0380136796</v>
       </c>
       <c r="R10" t="n">
-        <v>6819819.264388632</v>
+        <v>6820024.111215253</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1723,11 +1714,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1755,7 +1741,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836438</v>
+        <v>111836457</v>
       </c>
       <c r="B11" t="n">
         <v>77550</v>
@@ -1798,13 +1784,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466330.6106608774</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R11" t="n">
-        <v>6819819.264388632</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1876,10 +1862,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836390</v>
+        <v>111836342</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1892,21 +1878,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1919,13 +1905,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466339.2502530073</v>
+        <v>466192.7104208419</v>
       </c>
       <c r="R12" t="n">
-        <v>6819921.330039779</v>
+        <v>6819993.398862178</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1969,7 +1955,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1997,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836268</v>
+        <v>111836449</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2013,21 +1999,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2040,13 +2026,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466280.1850594401</v>
+        <v>466247.4288391273</v>
       </c>
       <c r="R13" t="n">
-        <v>6820041.710763609</v>
+        <v>6819770.428899747</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2086,6 +2072,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2113,10 +2104,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836308</v>
+        <v>111836434</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,30 +2116,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2156,13 +2152,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466219.5716104305</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R14" t="n">
-        <v>6820002.683507106</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2210,7 +2206,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2229,10 +2224,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836317</v>
+        <v>111836438</v>
       </c>
       <c r="B15" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,25 +2236,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2272,13 +2267,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466202.3635096124</v>
+        <v>466330.6106608774</v>
       </c>
       <c r="R15" t="n">
-        <v>6820002.851133012</v>
+        <v>6819819.264388632</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2318,6 +2313,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2345,10 +2345,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836457</v>
+        <v>111836390</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2361,21 +2361,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466247.4288391273</v>
+        <v>466339.2502530073</v>
       </c>
       <c r="R16" t="n">
-        <v>6819770.428899747</v>
+        <v>6819921.330039779</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>flera platser</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873424</v>
+        <v>111873414</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466349.4459690607</v>
+        <v>466336.0477446369</v>
       </c>
       <c r="R18" t="n">
-        <v>6819937.460199843</v>
+        <v>6819936.158226282</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111872964</v>
+        <v>111873224</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2728,21 +2728,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466284.1774389566</v>
+        <v>466161.2366510775</v>
       </c>
       <c r="R19" t="n">
-        <v>6819714.698731111</v>
+        <v>6819854.326197337</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111873348</v>
+        <v>111872947</v>
       </c>
       <c r="B20" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2844,21 +2844,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466179.6786675383</v>
+        <v>466286.0339444544</v>
       </c>
       <c r="R20" t="n">
-        <v>6819980.638297377</v>
+        <v>6819708.952416494</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873138</v>
+        <v>111873406</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466302.8618531339</v>
+        <v>466339.0362354739</v>
       </c>
       <c r="R21" t="n">
-        <v>6819817.147121492</v>
+        <v>6819948.539654247</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111873247</v>
+        <v>111873196</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,21 +3076,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466187.8628972895</v>
+        <v>466337.8227661458</v>
       </c>
       <c r="R22" t="n">
-        <v>6819888.434641422</v>
+        <v>6819823.490463061</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873148</v>
+        <v>111873138</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +3192,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466339.053065443</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R23" t="n">
-        <v>6819802.475478841</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873156</v>
+        <v>111873148</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466341.0253921551</v>
+        <v>466339.053065443</v>
       </c>
       <c r="R24" t="n">
-        <v>6819808.661799507</v>
+        <v>6819802.475478841</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873196</v>
+        <v>111872964</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466337.8227661458</v>
+        <v>466284.1774389566</v>
       </c>
       <c r="R25" t="n">
-        <v>6819823.490463061</v>
+        <v>6819714.698731111</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873406</v>
+        <v>111873247</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466339.0362354739</v>
+        <v>466187.8628972895</v>
       </c>
       <c r="R26" t="n">
-        <v>6819948.539654247</v>
+        <v>6819888.434641422</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873414</v>
+        <v>111873156</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466336.0477446369</v>
+        <v>466341.0253921551</v>
       </c>
       <c r="R27" t="n">
-        <v>6819936.158226282</v>
+        <v>6819808.661799507</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873224</v>
+        <v>111873093</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3772,21 +3772,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466161.2366510775</v>
+        <v>466290.7905546353</v>
       </c>
       <c r="R28" t="n">
-        <v>6819854.326197337</v>
+        <v>6819804.853501001</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111872947</v>
+        <v>111873424</v>
       </c>
       <c r="B29" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3888,21 +3888,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466286.0339444544</v>
+        <v>466349.4459690607</v>
       </c>
       <c r="R29" t="n">
-        <v>6819708.952416494</v>
+        <v>6819937.460199843</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873093</v>
+        <v>111873433</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466290.7905546353</v>
+        <v>466336.6193293465</v>
       </c>
       <c r="R30" t="n">
-        <v>6819804.853501001</v>
+        <v>6819896.534473499</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111873433</v>
+        <v>111872977</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4120,21 +4120,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466336.6193293465</v>
+        <v>466277.6982784302</v>
       </c>
       <c r="R31" t="n">
-        <v>6819896.534473499</v>
+        <v>6819736.719996482</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873017</v>
+        <v>111873134</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466286.4421484101</v>
+        <v>466302.8618531339</v>
       </c>
       <c r="R32" t="n">
-        <v>6819750.955557158</v>
+        <v>6819817.147121492</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111872977</v>
+        <v>111873348</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4352,21 +4352,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4379,13 +4379,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466277.6982784302</v>
+        <v>466179.6786675383</v>
       </c>
       <c r="R33" t="n">
-        <v>6819736.719996482</v>
+        <v>6819980.638297377</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873134</v>
+        <v>111873017</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4468,21 +4468,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466302.8618531339</v>
+        <v>466286.4421484101</v>
       </c>
       <c r="R34" t="n">
-        <v>6819817.147121492</v>
+        <v>6819750.955557158</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836123</v>
+        <v>111836026</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466332.0736853678</v>
+        <v>466285.5638356369</v>
       </c>
       <c r="R3" t="n">
-        <v>6820019.250367305</v>
+        <v>6820004.905357398</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836026</v>
+        <v>111836317</v>
       </c>
       <c r="B4" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,32 +928,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -963,13 +959,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466285.5638356369</v>
+        <v>466202.3635096124</v>
       </c>
       <c r="R4" t="n">
-        <v>6820004.905357398</v>
+        <v>6820002.851133012</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1036,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836317</v>
+        <v>111836123</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,28 +1044,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466202.3635096124</v>
+        <v>466332.0736853678</v>
       </c>
       <c r="R5" t="n">
-        <v>6820002.851133012</v>
+        <v>6820019.250367305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836268</v>
+        <v>111836457</v>
       </c>
       <c r="B2" t="n">
-        <v>88489</v>
+        <v>77550</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466280.1850594401</v>
+        <v>466247</v>
       </c>
       <c r="R2" t="n">
-        <v>6820041.710763609</v>
+        <v>6819770</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,19 +756,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836026</v>
+        <v>111836449</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,28 +807,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -843,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466285.5638356369</v>
+        <v>466247</v>
       </c>
       <c r="R3" t="n">
-        <v>6820004.905357398</v>
+        <v>6819770</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -876,19 +867,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -959,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466202.3635096124</v>
+        <v>466202</v>
       </c>
       <c r="R4" t="n">
-        <v>6820002.851133012</v>
+        <v>6820003</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -992,19 +978,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1032,10 +1008,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836123</v>
+        <v>111836438</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>77550</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,28 +1024,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>185</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1079,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466332.0736853678</v>
+        <v>466331</v>
       </c>
       <c r="R5" t="n">
-        <v>6820019.250367305</v>
+        <v>6819819</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1112,19 +1084,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1152,10 +1119,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836024</v>
+        <v>111836289</v>
       </c>
       <c r="B6" t="n">
-        <v>90670</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,25 +1131,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4365</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1195,13 +1162,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466285.5638356369</v>
+        <v>466266</v>
       </c>
       <c r="R6" t="n">
-        <v>6820004.905357398</v>
+        <v>6820019</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,19 +1195,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1268,7 +1225,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836308</v>
+        <v>111836108</v>
       </c>
       <c r="B7" t="n">
         <v>90678</v>
@@ -1301,7 +1258,11 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1311,13 +1272,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466219.5716104305</v>
+        <v>466323</v>
       </c>
       <c r="R7" t="n">
-        <v>6820002.683507106</v>
+        <v>6820024</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1344,19 +1305,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1384,10 +1335,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836425</v>
+        <v>111836268</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,21 +1351,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1427,13 +1378,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466330.6106608774</v>
+        <v>466280</v>
       </c>
       <c r="R8" t="n">
-        <v>6819819.264388632</v>
+        <v>6820042</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1460,24 +1411,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1505,10 +1441,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836289</v>
+        <v>111836123</v>
       </c>
       <c r="B9" t="n">
-        <v>77550</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,24 +1457,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1548,10 +1488,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466266.1049816937</v>
+        <v>466332</v>
       </c>
       <c r="R9" t="n">
-        <v>6820019.41398964</v>
+        <v>6820019</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,19 +1521,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836108</v>
+        <v>111836425</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,32 +1563,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1668,13 +1594,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466323.0380136796</v>
+        <v>466331</v>
       </c>
       <c r="R10" t="n">
-        <v>6820024.111215253</v>
+        <v>6819819</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1701,19 +1627,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1741,10 +1662,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836457</v>
+        <v>111836434</v>
       </c>
       <c r="B11" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1757,26 +1678,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1784,13 +1710,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466247.4288391273</v>
+        <v>466331</v>
       </c>
       <c r="R11" t="n">
-        <v>6819770.428899747</v>
+        <v>6819819</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1817,33 +1743,17 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>flera platser</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1905,10 +1815,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466192.7104208419</v>
+        <v>466193</v>
       </c>
       <c r="R12" t="n">
-        <v>6819993.398862178</v>
+        <v>6819993</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1938,19 +1848,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1983,10 +1883,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836449</v>
+        <v>111836308</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1995,25 +1895,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2026,13 +1926,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466247.4288391273</v>
+        <v>466220</v>
       </c>
       <c r="R13" t="n">
-        <v>6819770.428899747</v>
+        <v>6820003</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2059,24 +1959,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2104,10 +1989,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836434</v>
+        <v>111836026</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90710</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2120,31 +2005,30 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5449</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2152,10 +2036,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466330.6106608774</v>
+        <v>466286</v>
       </c>
       <c r="R14" t="n">
-        <v>6819819.264388632</v>
+        <v>6820005</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2185,27 +2069,18 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2224,10 +2099,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836438</v>
+        <v>111836024</v>
       </c>
       <c r="B15" t="n">
-        <v>77550</v>
+        <v>90670</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2236,25 +2111,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>4365</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2267,10 +2142,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466330.6106608774</v>
+        <v>466286</v>
       </c>
       <c r="R15" t="n">
-        <v>6819819.264388632</v>
+        <v>6820005</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2300,24 +2175,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2388,10 +2248,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466339.2502530073</v>
+        <v>466339</v>
       </c>
       <c r="R16" t="n">
-        <v>6819921.330039779</v>
+        <v>6819921</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2421,19 +2281,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2518,10 +2368,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466335.9671686366</v>
+        <v>466336</v>
       </c>
       <c r="R17" t="n">
-        <v>6820026.372276098</v>
+        <v>6820026</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2551,19 +2401,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2596,10 +2436,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873414</v>
+        <v>111873348</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2612,21 +2452,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2639,10 +2479,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466336.0477446369</v>
+        <v>466180</v>
       </c>
       <c r="R18" t="n">
-        <v>6819936.158226282</v>
+        <v>6819981</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2672,19 +2512,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2712,10 +2542,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873224</v>
+        <v>111873247</v>
       </c>
       <c r="B19" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2728,21 +2558,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2755,13 +2585,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466161.2366510775</v>
+        <v>466188</v>
       </c>
       <c r="R19" t="n">
-        <v>6819854.326197337</v>
+        <v>6819888</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2788,19 +2618,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2828,7 +2648,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111872947</v>
+        <v>111872977</v>
       </c>
       <c r="B20" t="n">
         <v>77550</v>
@@ -2871,13 +2691,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466286.0339444544</v>
+        <v>466278</v>
       </c>
       <c r="R20" t="n">
-        <v>6819708.952416494</v>
+        <v>6819737</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2904,19 +2724,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2944,10 +2754,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873406</v>
+        <v>111873017</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2960,21 +2770,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2987,13 +2797,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466339.0362354739</v>
+        <v>466286</v>
       </c>
       <c r="R21" t="n">
-        <v>6819948.539654247</v>
+        <v>6819751</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3020,19 +2830,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3060,7 +2860,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111873196</v>
+        <v>111873424</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -3103,13 +2903,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466337.8227661458</v>
+        <v>466349</v>
       </c>
       <c r="R22" t="n">
-        <v>6819823.490463061</v>
+        <v>6819937</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3136,19 +2936,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3176,10 +2966,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873138</v>
+        <v>111873433</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,21 +2982,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,13 +3009,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466302.8618531339</v>
+        <v>466337</v>
       </c>
       <c r="R23" t="n">
-        <v>6819817.147121492</v>
+        <v>6819897</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3252,19 +3042,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3292,7 +3072,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873148</v>
+        <v>111873196</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3335,10 +3115,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466339.053065443</v>
+        <v>466338</v>
       </c>
       <c r="R24" t="n">
-        <v>6819802.475478841</v>
+        <v>6819823</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,19 +3148,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3408,7 +3178,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111872964</v>
+        <v>111873093</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3451,13 +3221,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466284.1774389566</v>
+        <v>466291</v>
       </c>
       <c r="R25" t="n">
-        <v>6819714.698731111</v>
+        <v>6819805</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3484,19 +3254,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3524,10 +3284,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111873247</v>
+        <v>111872964</v>
       </c>
       <c r="B26" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,21 +3300,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3327,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466187.8628972895</v>
+        <v>466284</v>
       </c>
       <c r="R26" t="n">
-        <v>6819888.434641422</v>
+        <v>6819715</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3600,19 +3360,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3640,7 +3390,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873156</v>
+        <v>111873134</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3683,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466341.0253921551</v>
+        <v>466303</v>
       </c>
       <c r="R27" t="n">
-        <v>6819808.661799507</v>
+        <v>6819817</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3716,19 +3466,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3756,7 +3496,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873093</v>
+        <v>111873148</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3799,10 +3539,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466290.7905546353</v>
+        <v>466339</v>
       </c>
       <c r="R28" t="n">
-        <v>6819804.853501001</v>
+        <v>6819802</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3832,19 +3572,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3872,7 +3602,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111873424</v>
+        <v>111873406</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3915,10 +3645,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466349.4459690607</v>
+        <v>466339</v>
       </c>
       <c r="R29" t="n">
-        <v>6819937.460199843</v>
+        <v>6819949</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3948,19 +3678,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3988,10 +3708,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873433</v>
+        <v>111873138</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4004,21 +3724,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4031,13 +3751,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466336.6193293465</v>
+        <v>466303</v>
       </c>
       <c r="R30" t="n">
-        <v>6819896.534473499</v>
+        <v>6819817</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4064,19 +3784,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4104,7 +3814,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111872977</v>
+        <v>111872947</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4147,13 +3857,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466277.6982784302</v>
+        <v>466286</v>
       </c>
       <c r="R31" t="n">
-        <v>6819736.719996482</v>
+        <v>6819709</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4180,19 +3890,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4220,7 +3920,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873134</v>
+        <v>111873156</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4263,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466302.8618531339</v>
+        <v>466341</v>
       </c>
       <c r="R32" t="n">
-        <v>6819817.147121492</v>
+        <v>6819809</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4296,19 +3996,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4336,10 +4026,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873348</v>
+        <v>111873224</v>
       </c>
       <c r="B33" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4352,21 +4042,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4379,13 +4069,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466179.6786675383</v>
+        <v>466161</v>
       </c>
       <c r="R33" t="n">
-        <v>6819980.638297377</v>
+        <v>6819854</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4412,19 +4102,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4452,10 +4132,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873017</v>
+        <v>111873414</v>
       </c>
       <c r="B34" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4468,21 +4148,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4495,13 +4175,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466286.4421484101</v>
+        <v>466336</v>
       </c>
       <c r="R34" t="n">
-        <v>6819750.955557158</v>
+        <v>6819936</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4528,19 +4208,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111836457</v>
+        <v>111836390</v>
       </c>
       <c r="B2" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466247</v>
+        <v>466339</v>
       </c>
       <c r="R2" t="n">
-        <v>6819770</v>
+        <v>6819921</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>flera platser</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111836449</v>
+        <v>111836438</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466247</v>
+        <v>466331</v>
       </c>
       <c r="R3" t="n">
-        <v>6819770</v>
+        <v>6819819</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111836317</v>
+        <v>111836268</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>88489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466202</v>
+        <v>466280</v>
       </c>
       <c r="R4" t="n">
-        <v>6820003</v>
+        <v>6820042</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111836438</v>
+        <v>111836308</v>
       </c>
       <c r="B5" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1020,25 +1020,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466331</v>
+        <v>466220</v>
       </c>
       <c r="R5" t="n">
-        <v>6819819</v>
+        <v>6820003</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1087,11 +1087,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>flera platser</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1119,10 +1114,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111836289</v>
+        <v>111836108</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1131,28 +1126,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1162,13 +1161,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466266</v>
+        <v>466323</v>
       </c>
       <c r="R6" t="n">
-        <v>6820019</v>
+        <v>6820024</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1225,10 +1224,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111836108</v>
+        <v>111836457</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>77550</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1237,32 +1236,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1272,13 +1267,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466323</v>
+        <v>466247</v>
       </c>
       <c r="R7" t="n">
-        <v>6820024</v>
+        <v>6819770</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1308,6 +1303,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>flera platser</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,10 +1335,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111836268</v>
+        <v>111836024</v>
       </c>
       <c r="B8" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1347,25 +1347,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466280</v>
+        <v>466286</v>
       </c>
       <c r="R8" t="n">
-        <v>6820042</v>
+        <v>6820005</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111836123</v>
+        <v>111873372</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90812</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1453,32 +1453,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1488,13 +1484,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466332</v>
+        <v>466202</v>
       </c>
       <c r="R9" t="n">
-        <v>6820019</v>
+        <v>6820003</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1544,17 +1540,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111836425</v>
+        <v>111836434</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1567,26 +1563,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1632,18 +1633,12 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1662,10 +1657,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111836434</v>
+        <v>111836026</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90710</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1678,31 +1673,30 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5449</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1710,10 +1704,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466331</v>
+        <v>466286</v>
       </c>
       <c r="R11" t="n">
-        <v>6819819</v>
+        <v>6820005</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1754,6 +1748,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1772,10 +1767,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111836342</v>
+        <v>111873357</v>
       </c>
       <c r="B12" t="n">
-        <v>77268</v>
+        <v>77389</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,7 +1816,7 @@
         <v>6819993</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1851,11 +1846,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>flera brända stubbar här och söderut</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1876,17 +1866,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111836308</v>
+        <v>111836123</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1895,28 +1885,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1926,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466220</v>
+        <v>466332</v>
       </c>
       <c r="R13" t="n">
-        <v>6820003</v>
+        <v>6820019</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1989,10 +1983,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111836026</v>
+        <v>111873399</v>
       </c>
       <c r="B14" t="n">
-        <v>90710</v>
+        <v>77671</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2005,28 +1999,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5449</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2036,13 +2026,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466286</v>
+        <v>466266</v>
       </c>
       <c r="R14" t="n">
-        <v>6820005</v>
+        <v>6820019</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2092,17 +2082,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111836024</v>
+        <v>111836449</v>
       </c>
       <c r="B15" t="n">
-        <v>90670</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2111,25 +2101,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4365</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2142,13 +2132,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466286</v>
+        <v>466247</v>
       </c>
       <c r="R15" t="n">
-        <v>6820005</v>
+        <v>6819770</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2178,6 +2168,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2205,7 +2200,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111836390</v>
+        <v>111836425</v>
       </c>
       <c r="B16" t="n">
         <v>77515</v>
@@ -2248,10 +2243,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466339</v>
+        <v>466331</v>
       </c>
       <c r="R16" t="n">
-        <v>6819921</v>
+        <v>6819819</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2319,7 +2314,7 @@
         <v>111843193</v>
       </c>
       <c r="B17" t="n">
-        <v>95538</v>
+        <v>95693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,10 +2431,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111873348</v>
+        <v>111872947</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>77671</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2452,21 +2447,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2479,10 +2474,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466180</v>
+        <v>466286</v>
       </c>
       <c r="R18" t="n">
-        <v>6819981</v>
+        <v>6819709</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2542,10 +2537,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111873247</v>
+        <v>111873017</v>
       </c>
       <c r="B19" t="n">
-        <v>77268</v>
+        <v>77671</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2558,21 +2553,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2585,13 +2580,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466188</v>
+        <v>466286</v>
       </c>
       <c r="R19" t="n">
-        <v>6819888</v>
+        <v>6819751</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2648,10 +2643,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111872977</v>
+        <v>111873247</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>77389</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2664,21 +2659,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2691,13 +2686,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466278</v>
+        <v>466188</v>
       </c>
       <c r="R20" t="n">
-        <v>6819737</v>
+        <v>6819888</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2754,10 +2749,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111873017</v>
+        <v>111873224</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>77671</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2797,10 +2792,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466286</v>
+        <v>466161</v>
       </c>
       <c r="R21" t="n">
-        <v>6819751</v>
+        <v>6819854</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2860,10 +2855,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111873424</v>
+        <v>111873156</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2903,13 +2898,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466349</v>
+        <v>466341</v>
       </c>
       <c r="R22" t="n">
-        <v>6819937</v>
+        <v>6819809</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2966,10 +2961,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111873433</v>
+        <v>111873406</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3009,10 +3004,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466337</v>
+        <v>466339</v>
       </c>
       <c r="R23" t="n">
-        <v>6819897</v>
+        <v>6819949</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3072,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111873196</v>
+        <v>111873348</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77389</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3088,21 +3083,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3115,13 +3110,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466338</v>
+        <v>466180</v>
       </c>
       <c r="R24" t="n">
-        <v>6819823</v>
+        <v>6819981</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3178,10 +3173,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111873093</v>
+        <v>111873148</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3221,10 +3216,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466291</v>
+        <v>466339</v>
       </c>
       <c r="R25" t="n">
-        <v>6819805</v>
+        <v>6819802</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3284,10 +3279,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111872964</v>
+        <v>111872977</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>77671</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3300,21 +3295,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3327,13 +3322,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466284</v>
+        <v>466278</v>
       </c>
       <c r="R26" t="n">
-        <v>6819715</v>
+        <v>6819737</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3390,10 +3385,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111873134</v>
+        <v>111873433</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3433,13 +3428,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466303</v>
+        <v>466337</v>
       </c>
       <c r="R27" t="n">
-        <v>6819817</v>
+        <v>6819897</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3496,10 +3491,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111873148</v>
+        <v>111873414</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3539,13 +3534,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466339</v>
+        <v>466336</v>
       </c>
       <c r="R28" t="n">
-        <v>6819802</v>
+        <v>6819936</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3602,10 +3597,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111873406</v>
+        <v>111873134</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3645,13 +3640,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466339</v>
+        <v>466303</v>
       </c>
       <c r="R29" t="n">
-        <v>6819949</v>
+        <v>6819817</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3708,10 +3703,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873138</v>
+        <v>111873093</v>
       </c>
       <c r="B30" t="n">
-        <v>77550</v>
+        <v>77636</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3724,21 +3719,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3751,10 +3746,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466303</v>
+        <v>466291</v>
       </c>
       <c r="R30" t="n">
-        <v>6819817</v>
+        <v>6819805</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3814,10 +3809,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111872947</v>
+        <v>111873196</v>
       </c>
       <c r="B31" t="n">
-        <v>77550</v>
+        <v>77636</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3830,21 +3825,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3857,13 +3852,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466286</v>
+        <v>466338</v>
       </c>
       <c r="R31" t="n">
-        <v>6819709</v>
+        <v>6819823</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3920,10 +3915,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111873156</v>
+        <v>111872964</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3963,13 +3958,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466341</v>
+        <v>466284</v>
       </c>
       <c r="R32" t="n">
-        <v>6819809</v>
+        <v>6819715</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4026,10 +4021,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111873224</v>
+        <v>111873138</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>77671</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4069,10 +4064,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466161</v>
+        <v>466303</v>
       </c>
       <c r="R33" t="n">
-        <v>6819854</v>
+        <v>6819817</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4132,10 +4127,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111873414</v>
+        <v>111873424</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4175,10 +4170,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466336</v>
+        <v>466349</v>
       </c>
       <c r="R34" t="n">
-        <v>6819936</v>
+        <v>6819937</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 36038-2023.xlsx
+++ b/artfynd/A 36038-2023.xlsx
@@ -3703,7 +3703,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111873093</v>
+        <v>111872964</v>
       </c>
       <c r="B30" t="n">
         <v>77636</v>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466291</v>
+        <v>466284</v>
       </c>
       <c r="R30" t="n">
-        <v>6819805</v>
+        <v>6819715</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111873196</v>
+        <v>111873093</v>
       </c>
       <c r="B31" t="n">
         <v>77636</v>
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466338</v>
+        <v>466291</v>
       </c>
       <c r="R31" t="n">
-        <v>6819823</v>
+        <v>6819805</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111872964</v>
+        <v>111873196</v>
       </c>
       <c r="B32" t="n">
         <v>77636</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466284</v>
+        <v>466338</v>
       </c>
       <c r="R32" t="n">
-        <v>6819715</v>
+        <v>6819823</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
